--- a/biology/Zoologie/Cordylosaurus_subtessellatus/Cordylosaurus_subtessellatus.xlsx
+++ b/biology/Zoologie/Cordylosaurus_subtessellatus/Cordylosaurus_subtessellatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cordylosaurus subtessellatus, unique représentant du genre Cordylosaurus, est une espèce de sauriens de la famille des Gerrhosauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cordylosaurus subtessellatus, unique représentant du genre Cordylosaurus, est une espèce de sauriens de la famille des Gerrhosauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le sud de l'Angola, en Namibie, au Botswana et dans l'Ouest d'Afrique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le sud de l'Angola, en Namibie, au Botswana et dans l'Ouest d'Afrique du Sud.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce présente un corps assez tubulaire, avec des membres très peu développés. Les écailles sont de forme carré, avec un aspect brillant. Le corps est brun et crème, en larges bandes longitudinales, la queue étant plus unie, tirant parfois sur le bleu.
 Elle est ovipare.
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gray, 1866 "1865" : Descriptions of two new genera of lizards from Damaraland. Proceedings of the Zoological Society of London, vol. 1865, p. 640-642 (texte intégral).
 Smith, 1844 : Illustrations of the Zoology of South Africa; Consisting Chiefly of Figures and Descriptions of the Objects of Natural History Collected during an Expedition into the Interior of South Africa, in the Years 1834, 1835, and 1836.  London, Smith, Elder, &amp; Co.</t>
